--- a/02_donnees/activité09/top-j0800.xlsx
+++ b/02_donnees/activité09/top-j0800.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ad6640c2f144aa/Documents/lycée/snt/activité09/analyse/jeudi-saisie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ad6640c2f144aa/Documents/lycée/snt/activité09/analyse/jeudi-debut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{0C57FE90-3C14-466A-9734-7D8DEEA3501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8634E00A-16B2-49C2-9906-D78CCCD6B242}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{0C57FE90-3C14-466A-9734-7D8DEEA3501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AA9D25C-EF22-46D4-B30C-20B7564DB767}"/>
   <bookViews>
     <workbookView xWindow="3105" yWindow="1890" windowWidth="24510" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,23 +618,15 @@
         <v>23</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -658,9 +650,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -693,9 +683,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -739,17 +727,13 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -801,20 +785,14 @@
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -853,17 +831,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
@@ -1037,26 +1011,16 @@
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1135,9 +1099,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1164,12 +1126,8 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1202,12 +1160,8 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1216,9 +1170,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1253,9 +1205,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1413,29 +1363,19 @@
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1">
-        <v>1</v>
-      </c>
+      <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1446,9 +1386,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1477,9 +1415,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
+      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
@@ -1557,12 +1493,8 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1607,12 +1539,8 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1">
-        <v>1</v>
-      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -1656,9 +1584,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -1725,7 +1651,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
